--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_MoveTweenChgTarget.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_MoveTweenChgTarget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09626B75-41FE-46E2-8882-04130B69195F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697B9701-856E-4777-9D26-052B1494C634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,16 +127,14 @@
     <t>对象选择器</t>
   </si>
   <si>
-    <t>string#ref=SelectObjectConfigCategory</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>MoveTweenChgTarget_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>SelectObjectConfig_TestChgTarget1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>string#ref=SelectObjectCfgCategory</t>
+  </si>
+  <si>
+    <t>SelectObject_TestChgTarget1</t>
   </si>
 </sst>
 </file>
@@ -576,7 +574,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -628,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -660,7 +658,7 @@
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_MoveTweenChgTarget.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_MoveTweenChgTarget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697B9701-856E-4777-9D26-052B1494C634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BDC6FA-4106-4382-9747-DC060FBC806C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -136,12 +136,20 @@
   <si>
     <t>SelectObject_TestChgTarget1</t>
   </si>
+  <si>
+    <t>MoveTweenChgTarget_Monster_Scorpid2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Scorpid2_Change</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +187,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -262,7 +278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -281,6 +297,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -288,7 +305,17 @@
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="好 3" xfId="3" xr:uid="{F37074F8-BB21-4752-9520-5363098F3E8A}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -570,23 +597,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="44.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -603,7 +630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -612,7 +639,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -629,7 +656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -639,7 +666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -656,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
@@ -666,10 +693,21 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  <conditionalFormatting sqref="B1:B6 B8:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
